--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="222">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2193,6 +2193,126 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>HPFM.TENANT_PAGING_ENCRYPT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>hzero-iam.label-manager-site-level.getLabelListByType</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-content-site-level.pageHistory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-content-site-level.pageTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-content-site-level.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-log-site-level.listByCuszId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-log-site-level.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-point-site-level.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-point-site-level.refreshServicePoint</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.apply</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.cancelApply</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.disable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.enable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.rollback</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>hzero-platform.api-customize-site-level.validateCustomizeCode</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2260,6 +2380,39 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.HZERO.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
   </si>
   <si>
     <t>角色权限</t>
@@ -3959,7 +4112,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4013,6 +4166,226 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4020,7 +4393,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4059,10 +4432,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4077,72 +4450,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="Q7" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="W7" t="s" s="76">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="X7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="Y7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -4157,7 +4530,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -4178,45 +4551,166 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="V8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>181</v>
+      </c>
+      <c r="V9" t="s">
+        <v>181</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" t="s">
+        <v>186</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s" s="77">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s" s="78">
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s" s="77">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F10" t="s" s="79">
-        <v>140</v>
-      </c>
-      <c r="G10" t="s" s="80">
-        <v>141</v>
-      </c>
-      <c r="H10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" t="s" s="81">
-        <v>144</v>
+      <c r="F12" t="s" s="79">
+        <v>191</v>
+      </c>
+      <c r="G12" t="s" s="80">
+        <v>192</v>
+      </c>
+      <c r="H12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" t="s" s="81">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4265,66 +4759,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s" s="82">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="84">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s" s="85">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="M7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -4338,19 +4832,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -4370,33 +4864,33 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s" s="86">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s" s="87">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s" s="88">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s" s="89">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="H11" t="s" s="90">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G12">
         <f>API个性化插件菜单!$E$8</f>
@@ -4405,15 +4899,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G13">
         <f>API个性化插件菜单!$E$9</f>
@@ -4422,15 +4916,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G14">
         <f>API个性化插件菜单!$E$10</f>
@@ -4439,15 +4933,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G15">
         <f>API个性化插件菜单!$E$11</f>
@@ -4456,7 +4950,7 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
@@ -17,6 +17,7 @@
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="角色权限" r:id="rId7" sheetId="4"/>
     <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
+    <sheet name="API个性化" r:id="rId9" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="298">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2074,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>help_type</t>
+  </si>
+  <si>
+    <t>help_value</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2109,6 +2122,12 @@
     <t>api</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2172,6 +2191,9 @@
     <t>默认权限集</t>
   </si>
   <si>
+    <t>Default permission set</t>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2193,6 +2215,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2226,93 +2251,105 @@
     <t>iam_menu_permission-13</t>
   </si>
   <si>
+    <t>hzero-platform.api-customize-content-site-level.templateRender</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
     <t>hzero-platform.api-customize-log-site-level.listByCuszId</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
+    <t>iam_menu_permission-15</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-log-site-level.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-15</t>
+    <t>iam_menu_permission-16</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-point-site-level.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-17</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-point-site-level.refreshServicePoint</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
+    <t>iam_menu_permission-18</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.apply</t>
   </si>
   <si>
-    <t>iam_menu_permission-18</t>
+    <t>iam_menu_permission-19</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.cancelApply</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-20</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.disable</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.enable</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-26</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.rollback</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-27</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-28</t>
   </si>
   <si>
     <t>hzero-platform.api-customize-site-level.validateCustomizeCode</t>
   </si>
   <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>hzero-platform.common-template-site-level.list</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2334,7 +2371,7 @@
     <t>#h_parent_role_assign_level</t>
   </si>
   <si>
-    <t>h_parent_role_assign_level_val</t>
+    <t>#h_parent_role_assign_level_val</t>
   </si>
   <si>
     <t>is_enabled</t>
@@ -2364,6 +2401,9 @@
     <t>tpl_role_name:en_US</t>
   </si>
   <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2376,7 +2416,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>abcf</t>
+    <t/>
   </si>
   <si>
     <t>organization</t>
@@ -2394,9 +2434,6 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>abce</t>
-  </si>
-  <si>
     <t>iam_role-10</t>
   </si>
   <si>
@@ -2481,6 +2518,9 @@
     <t>HZERO菜单标签</t>
   </si>
   <si>
+    <t>Hzero menu label</t>
+  </si>
+  <si>
     <t>iam_label-9</t>
   </si>
   <si>
@@ -2512,6 +2552,459 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>API个性化配置</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz</t>
+  </si>
+  <si>
+    <t>*customize_id</t>
+  </si>
+  <si>
+    <t>#customize_code</t>
+  </si>
+  <si>
+    <t>customize_name:zh_CN</t>
+  </si>
+  <si>
+    <t>customize_name:en_US</t>
+  </si>
+  <si>
+    <t>service_name</t>
+  </si>
+  <si>
+    <t>package_name</t>
+  </si>
+  <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>method_name</t>
+  </si>
+  <si>
+    <t>method_args</t>
+  </si>
+  <si>
+    <t>method_return</t>
+  </si>
+  <si>
+    <t>customize_position</t>
+  </si>
+  <si>
+    <t>sync_flag</t>
+  </si>
+  <si>
+    <t>customize_status</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz-8</t>
+  </si>
+  <si>
+    <t>HIAM.DEMO.CREATION_TENANT</t>
+  </si>
+  <si>
+    <t>个性化示例：事件规则(创建租户)</t>
+  </si>
+  <si>
+    <t>Personalization example: event rule (create tenant)</t>
+  </si>
+  <si>
+    <t>hzero-iam</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.saas.app.service.impl</t>
+  </si>
+  <si>
+    <t>TenantServiceImpl</t>
+  </si>
+  <si>
+    <t>createTenant</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.domain.entity.Tenant</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>APPLIED</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz-9</t>
+  </si>
+  <si>
+    <t>HIAM.DEMO.CREATION_USER</t>
+  </si>
+  <si>
+    <t>个性化示例：事件规则(创建用户)</t>
+  </si>
+  <si>
+    <t>事件规则：创建用户</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.app.service.impl</t>
+  </si>
+  <si>
+    <t>UserServiceImpl</t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.domain.entity.User</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz-10</t>
+  </si>
+  <si>
+    <t>HPFM.DEMO.CREATION_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>个性化示例：事件规则(创建员工)</t>
+  </si>
+  <si>
+    <t>Personalization example: event rule (create employee)</t>
+  </si>
+  <si>
+    <t>hzero-platform</t>
+  </si>
+  <si>
+    <t>org.hzero.plugin.platform.hr.app.service.impl</t>
+  </si>
+  <si>
+    <t>EmployeeServiceImpl</t>
+  </si>
+  <si>
+    <t>insertEmployeeDetail</t>
+  </si>
+  <si>
+    <t>java.lang.Long,org.hzero.plugin.platform.hr.api.dto.EmployeeDTO</t>
+  </si>
+  <si>
+    <t>org.hzero.plugin.platform.hr.api.dto.EmployeeDTO</t>
+  </si>
+  <si>
+    <t>API个性化内容</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz_content</t>
+  </si>
+  <si>
+    <t>*customize_content_id</t>
+  </si>
+  <si>
+    <t>#customize_id</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>customize_content</t>
+  </si>
+  <si>
+    <t>#version_number</t>
+  </si>
+  <si>
+    <t>current_version_flag</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz_content-13</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则创建租户模板
+ * &lt;p&gt;
+ * 共有三处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleCreationEmployeeHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter((org.hzero.iam.domain.entity.Tenant)args[0], (org.hzero.iam.domain.entity.Tenant)args[1]);
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(org.hzero.iam.domain.entity.Tenant arg0, org.hzero.iam.domain.entity.Tenant returnValue) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(arg0, returnValue);
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(arg0, returnValue);
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(arg0, returnValue);
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(org.hzero.iam.domain.entity.Tenant arg0, org.hzero.iam.domain.entity.Tenant returnValue) {
+        // 事件规则：创建租户
+        return "HIAM.CREATION_TENANT";
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(org.hzero.iam.domain.entity.Tenant arg0, org.hzero.iam.domain.entity.Tenant returnValue) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        condition.put("number", 1);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(org.hzero.iam.domain.entity.Tenant arg0, org.hzero.iam.domain.entity.Tenant returnValue) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz_content-14</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则创建用户模板
+ * &lt;p&gt;
+ * 共有三处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleCreationUserHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter((org.hzero.iam.domain.entity.User)args[0], (org.hzero.iam.domain.entity.User)args[1]);
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(org.hzero.iam.domain.entity.User arg0, org.hzero.iam.domain.entity.User returnValue) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(arg0, returnValue);
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(arg0, returnValue);
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(arg0, returnValue);
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(org.hzero.iam.domain.entity.User arg0, org.hzero.iam.domain.entity.User returnValue) {
+        // 事件规则：创建用户
+        return "HIAM.CREATION_USER";
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(org.hzero.iam.domain.entity.User arg0, org.hzero.iam.domain.entity.User returnValue) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        condition.put("number", 1);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(org.hzero.iam.domain.entity.User arg0, org.hzero.iam.domain.entity.User returnValue) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>hpfm_api_cusz_content-15</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则创建员工模板
+ * &lt;p&gt;
+ * 共有三处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleCreationEmployeeHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter((java.lang.Long)args[0], (org.hzero.plugin.platform.hr.api.dto.EmployeeDTO)args[1], (org.hzero.plugin.platform.hr.api.dto.EmployeeDTO)args[2]);
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(java.lang.Long arg0, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO arg1, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO returnValue) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(arg0, arg1, returnValue);
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(arg0, arg1, returnValue);
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(arg0, arg1, returnValue);
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(java.lang.Long arg0, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO arg1, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO returnValue) {
+        // 事件规则：创建员工
+        return "HPFM.CREATION_EMPLOYEE";
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(java.lang.Long arg0, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO arg1, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO returnValue) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        condition.put("number", 1);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(java.lang.Long arg0, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO arg1, org.hzero.plugin.platform.hr.api.dto.EmployeeDTO returnValue) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +3012,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="94">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2785,6 +3278,21 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
     </font>
     <font>
@@ -2795,11 +3303,31 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
     </font>
     <font>
@@ -2865,6 +3393,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2921,6 +3454,51 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3071,7 +3649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3197,6 +3775,23 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3782,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3823,13 +4418,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" t="s" s="69">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3841,10 +4436,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" t="s" s="71">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -3865,7 +4460,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" t="s" s="72">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -3889,220 +4484,256 @@
       <c r="Y7" t="s">
         <v>74</v>
       </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>API个性化插件菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s">
         <v>92</v>
-      </c>
-      <c r="M9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <f>API个性化插件菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <f>API个性化插件菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
         <v>108</v>
       </c>
-      <c r="M11" t="s">
-        <v>102</v>
-      </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4743,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4151,239 +4782,468 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s" s="66">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s" s="67">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s" s="73">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
-        <v>113</v>
-      </c>
-      <c r="G7" t="s" s="69">
-        <v>114</v>
+      <c r="F7" t="s" s="75">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s" s="76">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F9">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F13">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F14">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F15">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F17">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F18">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F19">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F20">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F21">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F23">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F24">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F25">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F26">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F27">
         <f>API个性化插件菜单!$E$11</f>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29">
+        <f>API个性化插件菜单!$E$11</f>
+      </c>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +5253,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4432,12 +5292,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>156</v>
-      </c>
-      <c r="E7" t="s" s="71">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s" s="77">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -4446,239 +5306,275 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="72">
+      <c r="H7" t="s" s="79">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" t="s" s="73">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s" s="80">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" t="s" s="74">
-        <v>160</v>
-      </c>
-      <c r="N7" t="s" s="75">
-        <v>161</v>
-      </c>
-      <c r="O7" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="M7" t="s" s="81">
+        <v>172</v>
+      </c>
+      <c r="N7" t="s" s="82">
+        <v>173</v>
+      </c>
+      <c r="O7" t="s" s="83">
+        <v>174</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="T7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>168</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="W7" t="s" s="84">
+        <v>181</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Y7" t="s">
-        <v>171</v>
+        <v>183</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="V9" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10">
         <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="V10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Y10" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -4689,28 +5585,37 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" t="s" s="77">
-        <v>190</v>
-      </c>
-      <c r="E12" t="s" s="78">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s" s="85">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s" s="86">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
-        <v>191</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>192</v>
+      <c r="F12" t="s" s="87">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s" s="88">
+        <v>204</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>195</v>
+        <v>206</v>
+      </c>
+      <c r="J12" t="s" s="89">
+        <v>207</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +5625,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4759,101 +5664,119 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>197</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s" s="90">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s" s="91">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
-        <v>198</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>195</v>
+      <c r="F7" t="s" s="92">
+        <v>210</v>
+      </c>
+      <c r="G7" t="s" s="93">
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>205</v>
+        <v>217</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -4864,33 +5787,39 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" t="s" s="86">
-        <v>214</v>
-      </c>
-      <c r="E11" t="s" s="87">
-        <v>215</v>
-      </c>
-      <c r="F11" t="s" s="88">
-        <v>216</v>
-      </c>
-      <c r="G11" t="s" s="89">
-        <v>217</v>
-      </c>
-      <c r="H11" t="s" s="90">
-        <v>218</v>
+        <v>226</v>
+      </c>
+      <c r="D11" t="s" s="94">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s" s="95">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s" s="96">
+        <v>229</v>
+      </c>
+      <c r="G11" t="s" s="97">
+        <v>230</v>
+      </c>
+      <c r="H11" t="s" s="98">
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>232</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
         <v>220</v>
-      </c>
-      <c r="F12" t="s">
-        <v>208</v>
       </c>
       <c r="G12">
         <f>API个性化插件菜单!$E$8</f>
@@ -4899,15 +5828,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" t="s">
         <v>220</v>
-      </c>
-      <c r="F13" t="s">
-        <v>208</v>
       </c>
       <c r="G13">
         <f>API个性化插件菜单!$E$9</f>
@@ -4916,15 +5851,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" t="s">
         <v>220</v>
-      </c>
-      <c r="F14" t="s">
-        <v>208</v>
       </c>
       <c r="G14">
         <f>API个性化插件菜单!$E$10</f>
@@ -4933,15 +5874,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
         <v>220</v>
-      </c>
-      <c r="F15" t="s">
-        <v>208</v>
       </c>
       <c r="G15">
         <f>API个性化插件菜单!$E$11</f>
@@ -4950,7 +5897,403 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="61">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="62">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="64">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s" s="99">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s" s="100">
+        <v>237</v>
+      </c>
+      <c r="F7" t="s" s="101">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" t="s">
+        <v>245</v>
+      </c>
+      <c r="N7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" t="s" s="102">
+        <v>250</v>
+      </c>
+      <c r="S7" t="s" s="103">
+        <v>251</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" t="s">
+        <v>261</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" t="s">
+        <v>278</v>
+      </c>
+      <c r="M10" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s" s="104">
+        <v>282</v>
+      </c>
+      <c r="E12" t="s" s="105">
+        <v>283</v>
+      </c>
+      <c r="F12" t="s" s="106">
+        <v>284</v>
+      </c>
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" t="s" s="107">
+        <v>287</v>
+      </c>
+      <c r="J12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13">
+        <f>API个性化!$E$8</f>
+      </c>
+      <c r="G13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14">
+        <f>API个性化!$E$9</f>
+      </c>
+      <c r="G14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15">
+        <f>API个性化!$E$10</f>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-api-customize/hzero-api-customize-menu.xlsx
@@ -25,12 +25,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="339">
   <si>
     <r>
       <rPr>
@@ -1999,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2185,6 +2185,141 @@
     <t>iam_menu-11</t>
   </si>
   <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.-type.-id.button.historyDelete</t>
+  </si>
+  <si>
+    <t>API个性化选择切入点-刷新切入点</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.-type.-id.button.historyDelete</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.apply</t>
+  </si>
+  <si>
+    <t>API个性化-应用</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.apply</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.applyLog</t>
+  </si>
+  <si>
+    <t>API个性化-应用日志</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.applyLog</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.create</t>
+  </si>
+  <si>
+    <t>API个性化-新建</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.create</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.detail</t>
+  </si>
+  <si>
+    <t>API个性化-详情</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.detail</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.edit</t>
+  </si>
+  <si>
+    <t>API个性化-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.history</t>
+  </si>
+  <si>
+    <t>API个性化-历史版本</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.history</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.historyDetail</t>
+  </si>
+  <si>
+    <t>API个性化历史版本-详情</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.historyDetail</t>
+  </si>
+  <si>
+    <t>iam_menu-19</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.historyRollBack</t>
+  </si>
+  <si>
+    <t>API个性化历史版本-回滚</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.historyRollBack</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.logDetail</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.logDetail</t>
+  </si>
+  <si>
+    <t>iam_menu-21</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.unApply</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.hpfm.api-customize.list.button.unApply</t>
+  </si>
+  <si>
+    <t>iam_menu-22</t>
+  </si>
+  <si>
     <t>hzero.site.dev.personality.api-customize.ps.default</t>
   </si>
   <si>
@@ -2194,9 +2329,6 @@
     <t>Default permission set</t>
   </si>
   <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.api-customize|hzero.site.dev.personality.api-customize.ps.default</t>
   </si>
   <si>
@@ -2224,6 +2356,9 @@
     <t>HPFM.TENANT_PAGING_ENCRYPT</t>
   </si>
   <si>
+    <t>542</t>
+  </si>
+  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
@@ -2239,114 +2374,81 @@
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-content-site-level.pageTemplate</t>
+    <t>hzero-platform.api-customize-content-site-level.templateRender</t>
   </si>
   <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-content-site-level.remove</t>
+    <t>hzero-platform.api-customize-log-site-level.listByCuszId</t>
   </si>
   <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-content-site-level.templateRender</t>
+    <t>hzero-platform.api-customize-point-site-level.list</t>
+  </si>
+  <si>
+    <t>2124</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-log-site-level.listByCuszId</t>
+    <t>hzero-platform.api-customize-point-site-level.refreshServicePoint</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-log-site-level.remove</t>
+    <t>hzero-platform.api-customize-site-level.apply</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-point-site-level.list</t>
+    <t>hzero-platform.api-customize-site-level.cancelApply</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-point-site-level.refreshServicePoint</t>
+    <t>hzero-platform.api-customize-site-level.create</t>
   </si>
   <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.apply</t>
+    <t>hzero-platform.api-customize-site-level.detail</t>
   </si>
   <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.cancelApply</t>
+    <t>hzero-platform.api-customize-site-level.list</t>
   </si>
   <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.create</t>
+    <t>hzero-platform.api-customize-site-level.rollback</t>
   </si>
   <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.detail</t>
+    <t>hzero-platform.api-customize-site-level.update</t>
   </si>
   <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.disable</t>
+    <t>hzero-platform.api-customize-site-level.validateCustomizeCode</t>
   </si>
   <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hzero-platform.api-customize-site-level.enable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-24</t>
-  </si>
-  <si>
-    <t>hzero-platform.api-customize-site-level.list</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>hzero-platform.api-customize-site-level.remove</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
-  </si>
-  <si>
-    <t>hzero-platform.api-customize-site-level.rollback</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-27</t>
-  </si>
-  <si>
-    <t>hzero-platform.api-customize-site-level.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-28</t>
-  </si>
-  <si>
-    <t>hzero-platform.api-customize-site-level.validateCustomizeCode</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
     <t>hzero-platform.common-template-site-level.list</t>
   </si>
   <si>
@@ -2416,12 +2518,12 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -2525,6 +2627,27 @@
   </si>
   <si>
     <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TEST_MENU1</t>
+  </si>
+  <si>
+    <t>30625</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>TEST_MENU2</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>TEST_MENU3</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -4377,7 +4500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4578,8 +4701,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>API个性化插件菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -4637,8 +4761,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>API个性化插件菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>107</v>
@@ -4691,23 +4816,30 @@
         <v>113</v>
       </c>
       <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
         <v>114</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>88</v>
       </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -4720,11 +4852,8 @@
       <c r="T11" t="s">
         <v>85</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>117</v>
-      </c>
-      <c r="V11" t="s">
-        <v>90</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -4733,6 +4862,663 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>117</v>
+      </c>
+      <c r="X15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" t="s">
+        <v>149</v>
+      </c>
+      <c r="T19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>155</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" t="s">
+        <v>90</v>
+      </c>
+      <c r="X22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4743,7 +5529,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4782,22 +5568,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s" s="73">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="75">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s" s="76">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -4808,13 +5594,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>167</v>
+      </c>
+      <c r="F8" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -4823,18 +5610,19 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>170</v>
+      </c>
+      <c r="F9" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -4843,18 +5631,19 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>172</v>
+      </c>
+      <c r="F10" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -4863,18 +5652,19 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>174</v>
+      </c>
+      <c r="F11" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -4883,18 +5673,19 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>176</v>
+      </c>
+      <c r="F12" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -4903,18 +5694,19 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>178</v>
+      </c>
+      <c r="F13" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -4923,18 +5715,19 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>181</v>
+      </c>
+      <c r="F14" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -4943,18 +5736,19 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>183</v>
+      </c>
+      <c r="F15" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -4963,18 +5757,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>185</v>
+      </c>
+      <c r="F16" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -4983,18 +5778,19 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>187</v>
+      </c>
+      <c r="F17" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -5003,18 +5799,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>189</v>
+      </c>
+      <c r="F18" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -5023,18 +5820,19 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>191</v>
+      </c>
+      <c r="F19" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -5043,18 +5841,19 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>193</v>
+      </c>
+      <c r="F20" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -5063,18 +5862,19 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>195</v>
+      </c>
+      <c r="F21" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
         <v>85</v>
@@ -5083,18 +5883,19 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>197</v>
+      </c>
+      <c r="F22" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
@@ -5103,18 +5904,19 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23">
-        <f>API个性化插件菜单!$E$11</f>
+        <v>199</v>
+      </c>
+      <c r="F23" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
         <v>85</v>
@@ -5123,127 +5925,7 @@
         <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G28" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5292,10 +5974,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s" s="77">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s" s="78">
         <v>54</v>
@@ -5310,58 +5992,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="K7" t="s" s="80">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="M7" t="s" s="81">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="N7" t="s" s="82">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s" s="83">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="S7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="T7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="W7" t="s" s="84">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="X7" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="Z7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -5372,19 +6054,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -5399,7 +6078,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -5420,10 +6099,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="V8" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -5435,27 +6114,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -5467,7 +6143,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -5488,10 +6164,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="V9" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -5503,24 +6179,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -5528,11 +6204,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -5553,19 +6230,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="V10" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="Y10" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -5574,7 +6251,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -5585,31 +6262,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s" s="85">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s" s="86">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="87">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s" s="88">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="J12" t="s" s="89">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
@@ -5625,7 +6302,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5664,43 +6341,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s" s="90">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s" s="91">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="92">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s" s="93">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="N7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -5711,25 +6388,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5749,19 +6426,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -5779,131 +6456,235 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" t="s" s="94">
-        <v>227</v>
-      </c>
-      <c r="E11" t="s" s="95">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s" s="96">
-        <v>229</v>
-      </c>
-      <c r="G11" t="s" s="97">
-        <v>230</v>
-      </c>
-      <c r="H11" t="s" s="98">
-        <v>231</v>
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
+        <v>255</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12">
-        <f>API个性化插件菜单!$E$8</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
+        <v>266</v>
+      </c>
+      <c r="G12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" t="s">
+        <v>255</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13">
-        <f>API个性化插件菜单!$E$9</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
+      <c r="Q12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14">
-        <f>API个性化插件菜单!$E$10</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s" s="94">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s" s="95">
+        <v>269</v>
+      </c>
+      <c r="F14" t="s" s="96">
+        <v>270</v>
+      </c>
+      <c r="G14" t="s" s="97">
+        <v>271</v>
+      </c>
+      <c r="H14" t="s" s="98">
+        <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15">
-        <f>API个性化插件菜单!$E$11</f>
-      </c>
-      <c r="H15">
+        <v>254</v>
+      </c>
+      <c r="G15" t="n">
+        <f>API个性化插件菜单!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
       </c>
       <c r="K15" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" t="n">
+        <f>API个性化插件菜单!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" t="n">
+        <f>API个性化插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" t="n">
+        <f>API个性化插件菜单!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>275</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5952,55 +6733,55 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s" s="99">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s" s="100">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s" s="101">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="O7" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="Q7" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="R7" t="s" s="102">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="S7" t="s" s="103">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="T7" t="s">
         <v>77</v>
@@ -6011,43 +6792,43 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="L8" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="M8" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="N8" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="O8" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="P8" t="s">
         <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="R8" t="s">
         <v>85</v>
@@ -6064,43 +6845,43 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="K9" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="L9" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="M9" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="N9" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="O9" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="P9" t="s">
         <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="R9" t="s">
         <v>85</v>
@@ -6117,43 +6898,43 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K10" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="L10" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="M10" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="N10" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="O10" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="P10" t="s">
         <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="R10" t="s">
         <v>85</v>
@@ -6176,31 +6957,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D12" t="s" s="104">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="E12" t="s" s="105">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s" s="106">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="H12" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s" s="107">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J12" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
@@ -6211,19 +6992,20 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13">
+        <v>330</v>
+      </c>
+      <c r="F13" t="n">
         <f>API个性化!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="J13" t="s">
         <v>88</v>
@@ -6235,24 +7017,25 @@
         <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14">
+        <v>334</v>
+      </c>
+      <c r="F14" t="n">
         <f>API个性化!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="H14" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J14" t="s">
         <v>88</v>
@@ -6264,24 +7047,25 @@
         <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15">
+        <v>337</v>
+      </c>
+      <c r="F15" t="n">
         <f>API个性化!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="J15" t="s">
         <v>88</v>
@@ -6293,7 +7077,7 @@
         <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
